--- a/result/NCDC_weather_data/stations_imputed/57866099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57866099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>0.617328</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>9.432687314447595</v>
+      </c>
       <c r="O2" t="n">
         <v>122.9</v>
       </c>
@@ -625,7 +627,9 @@
       <c r="M3" t="n">
         <v>1.183212</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>9.432687314447595</v>
+      </c>
       <c r="O3" t="n">
         <v>134.06</v>
       </c>
@@ -681,7 +685,9 @@
       <c r="M4" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>9.432687314447595</v>
+      </c>
       <c r="O4" t="n">
         <v>139.46</v>
       </c>
